--- a/biology/Histoire de la zoologie et de la botanique/Johan_Stensson_Rothman/Johan_Stensson_Rothman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johan_Stensson_Rothman/Johan_Stensson_Rothman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johan Stensson Rothman est un médecin et un  naturaliste suédois, né à Växjö le 24 février 1684 et décédé à Växjö le 20 juillet 1763.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à Harderwijk et à Leyde où il suit les cours d’Herman Boerhaave (1668-1738). Après avoir obtenu son diplôme de docteur en médecine à Harderwijk, en 1713, il devient le médecin du Comté de Kronoberg, en 1718, puis enseigne l’histoire naturelle à l’école supérieure de Växjö, à partir de 1720. Il est influencé par les travaux de Sébastien Vaillant (1669-1722) sur la sexualité des végétaux auxquels il initie l’un de ses anciens élèves, Carl von Linné (1707-1778). Il est marié avec Anna Elisabeth Rothman. Son fils est le botaniste Göran Rothman (1739-1778), traducteur de Voltaire (1694-1778) et d’Alexander Pope (1688-1744), et qui étudiera auprès de Linné.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Italian Ornithological Web Site
 Notices d'autorité : VIAF ISNI IdRef GND Italie Pays-Bas Suède WorldCat 
